--- a/static/download/2013/RP1_SAF_RAT_App_2013.xlsx
+++ b/static/download/2013/RP1_SAF_RAT_App_2013.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Data information" sheetId="1" r:id="rId3"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>CAVEAT</t>
   </si>
@@ -129,6 +129,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>Contact</t>
+  </si>
+  <si>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>% severity assessed with RAT</t>
@@ -408,8 +414,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -465,7 +471,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
+    <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left/>
       <right/>
@@ -473,34 +508,6 @@
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -549,6 +556,26 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -574,152 +601,160 @@
   </cellStyleXfs>
   <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,30 +764,33 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="88.0"/>
+    <col customWidth="1" min="1" max="1" width="77.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -796,7 +834,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -805,15 +846,15 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="2.0"/>
-    <col customWidth="1" min="5" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="2.14"/>
-    <col customWidth="1" min="8" max="8" width="15.43"/>
-    <col customWidth="1" min="9" max="9" width="32.0"/>
+    <col customWidth="1" min="1" max="1" width="14.38"/>
+    <col customWidth="1" min="2" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="1.75"/>
+    <col customWidth="1" min="5" max="6" width="9.13"/>
+    <col customWidth="1" min="7" max="7" width="1.88"/>
+    <col customWidth="1" min="8" max="8" width="13.5"/>
+    <col customWidth="1" min="9" max="9" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -835,14 +876,13 @@
       <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/RAT_methodology_application","RAT methodology application")</f>
-        <v>RAT methodology application</v>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11">
         <v>41918.0</v>
@@ -850,18 +890,17 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="12">
         <v>41639.0</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="14" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
@@ -877,49 +916,49 @@
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
       <c r="E4" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="27"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="29">
         <v>1.0</v>
@@ -942,7 +981,7 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="29">
         <v>0.71</v>
@@ -965,7 +1004,7 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="29">
         <v>1.0</v>
@@ -975,10 +1014,10 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="32">
@@ -988,7 +1027,7 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="29">
         <v>0.71</v>
@@ -1011,7 +1050,7 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="32">
         <v>1.0</v>
@@ -1034,7 +1073,7 @@
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="29">
         <v>0.13</v>
@@ -1057,7 +1096,7 @@
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="29">
         <v>0.96</v>
@@ -1080,7 +1119,7 @@
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="29">
         <v>1.0</v>
@@ -1103,7 +1142,7 @@
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="31">
         <v>0.97</v>
@@ -1126,7 +1165,7 @@
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="31">
         <v>0.76</v>
@@ -1149,7 +1188,7 @@
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="29">
         <v>1.0</v>
@@ -1172,7 +1211,7 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="32">
         <v>1.0</v>
@@ -1195,7 +1234,7 @@
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="29">
         <v>1.0</v>
@@ -1218,7 +1257,7 @@
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="29">
         <v>1.0</v>
@@ -1241,7 +1280,7 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="29">
         <v>1.0</v>
@@ -1264,20 +1303,20 @@
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="29">
@@ -1287,7 +1326,7 @@
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="32">
         <v>1.0</v>
@@ -1310,7 +1349,7 @@
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="32">
         <v>1.0</v>
@@ -1333,7 +1372,7 @@
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="29">
         <v>0.04</v>
@@ -1356,7 +1395,7 @@
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="29">
         <v>0.49</v>
@@ -1379,13 +1418,13 @@
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="29">
@@ -1402,7 +1441,7 @@
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="29">
         <v>1.0</v>
@@ -1425,7 +1464,7 @@
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="29">
         <v>1.0</v>
@@ -1448,7 +1487,7 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="29">
         <v>1.0</v>
@@ -1471,7 +1510,7 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="29">
         <v>1.0</v>
@@ -1494,7 +1533,7 @@
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="31">
         <v>0.33</v>
@@ -1517,7 +1556,7 @@
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="31">
         <v>0.47</v>
@@ -1540,7 +1579,7 @@
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" s="31">
         <v>0.74</v>
@@ -1563,7 +1602,7 @@
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="29">
         <v>1.0</v>
@@ -1591,15 +1630,17 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="I1"/>
-    <hyperlink r:id="rId3" ref="I2"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -1608,16 +1649,16 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="2" width="10.43"/>
-    <col customWidth="1" min="3" max="3" width="10.29"/>
-    <col customWidth="1" min="4" max="4" width="2.0"/>
-    <col customWidth="1" min="5" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="2.14"/>
-    <col customWidth="1" min="8" max="8" width="18.43"/>
-    <col customWidth="1" min="9" max="9" width="8.86"/>
+    <col customWidth="1" min="1" max="1" width="14.38"/>
+    <col customWidth="1" min="2" max="2" width="9.13"/>
+    <col customWidth="1" min="3" max="3" width="9.0"/>
+    <col customWidth="1" min="4" max="4" width="1.75"/>
+    <col customWidth="1" min="5" max="6" width="9.13"/>
+    <col customWidth="1" min="7" max="7" width="1.88"/>
+    <col customWidth="1" min="8" max="8" width="16.13"/>
+    <col customWidth="1" min="9" max="9" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1639,33 +1680,31 @@
       <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/RAT_methodology_application","RAT methodology application")</f>
-        <v>RAT methodology application</v>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="37"/>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="36">
         <v>41639.0</v>
       </c>
       <c r="G2" s="37"/>
       <c r="H2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="14" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
@@ -1681,43 +1720,43 @@
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="40"/>
       <c r="E4" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="40"/>
       <c r="H4" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I5" s="41"/>
     </row>
@@ -1787,38 +1826,40 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="I1"/>
-    <hyperlink r:id="rId3" ref="I2"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="18.14"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="15.88"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -1826,11 +1867,11 @@
         <v>41745.0</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -1838,11 +1879,11 @@
         <v>41746.0</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -1850,13 +1891,13 @@
         <v>41834.0</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="49">
         <v>2013.0</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -1864,13 +1905,13 @@
         <v>41918.0</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="50">
         <v>2013.0</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -1878,13 +1919,13 @@
         <v>41918.0</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="50">
         <v>2013.0</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -1892,13 +1933,13 @@
         <v>41918.0</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C7" s="50">
         <v>2013.0</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -1906,13 +1947,13 @@
         <v>41918.0</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="50">
         <v>2013.0</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -1920,13 +1961,13 @@
         <v>41918.0</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="50">
         <v>2013.0</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -1934,13 +1975,13 @@
         <v>41948.0</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="50">
         <v>2013.0</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -1948,13 +1989,13 @@
         <v>41948.0</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="50">
         <v>2013.0</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -1962,13 +2003,13 @@
         <v>41948.0</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12" s="50">
         <v>2013.0</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1976,13 +2017,13 @@
         <v>41955.0</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="50">
         <v>2013.0</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1990,13 +2031,13 @@
         <v>41955.0</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C14" s="50">
         <v>2013.0</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -2004,13 +2045,13 @@
         <v>41990.0</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="50">
         <v>2013.0</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -2018,13 +2059,13 @@
         <v>41990.0</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="50">
         <v>2013.0</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -2032,13 +2073,13 @@
         <v>41990.0</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="50">
         <v>2013.0</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -2046,13 +2087,13 @@
         <v>41990.0</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="50">
         <v>2013.0</v>
       </c>
       <c r="D18" s="50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -2060,13 +2101,13 @@
         <v>41990.0</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="50">
         <v>2013.0</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -2074,13 +2115,13 @@
         <v>41990.0</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="50">
         <v>2013.0</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -2088,13 +2129,13 @@
         <v>41990.0</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="50">
         <v>2013.0</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -2102,13 +2143,13 @@
         <v>41990.0</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="50">
         <v>2013.0</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
